--- a/Data/Dijkstra.xlsx
+++ b/Data/Dijkstra.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AngusRitossa/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AngusRitossa/Desktop/Heaps/Heaps/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="14180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -186,7 +186,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2288,11 +2287,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2067292528"/>
-        <c:axId val="-2057804864"/>
+        <c:axId val="2146148112"/>
+        <c:axId val="2146151616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2067292528"/>
+        <c:axId val="2146148112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0E7"/>
@@ -2350,12 +2349,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2057804864"/>
+        <c:crossAx val="2146151616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2057804864"/>
+        <c:axId val="2146151616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2375,6 +2374,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2412,7 +2412,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2067292528"/>
+        <c:crossAx val="2146148112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2426,7 +2426,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2533,7 +2532,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3593,11 +3591,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2058298704"/>
-        <c:axId val="-2064672384"/>
+        <c:axId val="2146211600"/>
+        <c:axId val="2146214960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2058298704"/>
+        <c:axId val="2146211600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0E7"/>
@@ -3655,12 +3653,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2064672384"/>
+        <c:crossAx val="2146214960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2064672384"/>
+        <c:axId val="2146214960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3717,7 +3715,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2058298704"/>
+        <c:crossAx val="2146211600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3731,7 +3729,5742 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-AU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Dijkstra on worst-case graph</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0766292073069194"/>
+          <c:y val="0.138082440185532"/>
+          <c:w val="0.852100826448359"/>
+          <c:h val="0.582140457534787"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2-ary</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$4:$AB$4</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$5:$AB$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>65.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>118.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>217.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>414.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>621.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>809.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1007.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4-ary</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$4:$AB$4</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$6:$AB$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>69.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>222.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>327.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>421.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>524.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8-ary</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$4:$AB$4</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$7:$AB$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>94.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>171.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>248.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>326.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>399.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16-ary</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$4:$AB$4</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$8:$AB$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>82.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>144.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>207.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>267.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>338.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Binomial</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$4:$AB$4</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$9:$AB$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>56.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>112.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>189.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>332.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>604.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>891.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1131.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1459.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fibonacci</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$4:$AB$4</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$10:$AB$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>134.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>241.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>458.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>668.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>891.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1125.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hollow</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="plus"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$4:$AB$4</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$11:$AB$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>86.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>174.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>342.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>718.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1112.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1527.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pairing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dot"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$4:$AB$4</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$12:$AB$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>61.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>107.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>198.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>288.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>380.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>492.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Quake</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dash"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$4:$AB$4</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$13:$AB$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>124.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>180.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>236.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>511.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1052.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2132.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3198.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4284.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5400.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rank-pairing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$4:$AB$4</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$14:$AB$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>57.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>263.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>765.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>984.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1224.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Smooth forest</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$4:$AB$4</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$15:$AB$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>77.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>144.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>278.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>400.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>525.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>650.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Smooth one-tree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$4:$AB$4</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$16:$AB$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>74.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>139.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>253.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>379.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>497.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>610.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Strict Fibonacci</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$4:$AB$4</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$17:$AB$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>132.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>186.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>240.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>295.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>538.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1014.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1943.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2913.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3818.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4829.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Violation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$4:$AB$4</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$18:$AB$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>67.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>78.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>130.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>231.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>453.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>652.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>865.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1092.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>STL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$4:$AB$4</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$19:$AB$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>59.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>73.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>149.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>312.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>658.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1043.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1372.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1798.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2146336912"/>
+        <c:axId val="2146340144"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2146336912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.0E7"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2146340144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2146340144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2146336912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0281215549307838"/>
+          <c:y val="0.773191828415713"/>
+          <c:w val="0.932349865713593"/>
+          <c:h val="0.201431201184925"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-AU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Dijkstra on worst-case graph</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.2866357045967"/>
+          <c:y val="0.0174665762622352"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0801605490245398"/>
+          <c:y val="0.106650914657208"/>
+          <c:w val="0.86114080555281"/>
+          <c:h val="0.578256450599159"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2-ary</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$4:$AB$4</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$5:$AB$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>65.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>118.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>217.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>414.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>621.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>809.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1007.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4-ary</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$4:$AB$4</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$6:$AB$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>69.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>222.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>327.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>421.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>524.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8-ary</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$4:$AB$4</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$7:$AB$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>94.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>171.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>248.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>326.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>399.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16-ary</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$4:$AB$4</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$8:$AB$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>82.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>144.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>207.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>267.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>338.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Binomial</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$4:$AB$4</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$9:$AB$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>56.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>112.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>189.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>332.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>604.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>891.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1131.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1459.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fibonacci</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$4:$AB$4</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$10:$AB$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>134.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>241.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>458.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>668.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>891.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1125.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hollow</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="plus"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$4:$AB$4</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$11:$AB$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>86.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>174.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>342.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>718.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1112.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1527.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pairing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dot"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$4:$AB$4</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$12:$AB$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>61.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>107.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>198.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>288.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>380.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>492.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rank-pairing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$4:$AB$4</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$14:$AB$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>57.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>263.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>765.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>984.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1224.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Smooth forest</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$4:$AB$4</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$15:$AB$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>77.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>144.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>278.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>400.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>525.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>650.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Smooth one-tree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$4:$AB$4</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$16:$AB$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>74.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>139.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>253.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>379.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>497.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>610.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Violation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$4:$AB$4</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$18:$AB$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>67.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>78.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>130.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>231.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>453.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>652.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>865.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1092.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>STL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$4:$AB$4</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$19:$AB$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>59.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>73.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>149.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>312.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>658.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1043.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1372.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1798.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2145600160"/>
+        <c:axId val="2145596928"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2145600160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.0E7"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2145596928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2145596928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2050.0"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2145600160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.113358377064747"/>
+          <c:y val="0.753719624317325"/>
+          <c:w val="0.822496873056394"/>
+          <c:h val="0.218333853663099"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-AU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Dijkstra on</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> worst-case graph</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0646236544626641"/>
+          <c:y val="0.118406953865964"/>
+          <c:w val="0.875982251676942"/>
+          <c:h val="0.548774159733448"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2-ary</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$4:$V$4</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$5:$V$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>65.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4-ary</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$4:$V$4</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$6:$V$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8-ary</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$4:$V$4</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$7:$V$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16-ary</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$4:$V$4</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$8:$V$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Binomial</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$4:$V$4</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$9:$V$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>56.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>112.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fibonacci</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$4:$V$4</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$10:$V$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hollow</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="plus"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$4:$V$4</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$11:$V$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>86.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pairing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dot"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$4:$V$4</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$12:$V$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rank-pairing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$4:$V$4</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$14:$V$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>57.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Smooth forest</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$4:$V$4</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$15:$V$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Smooth one-tree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$4:$V$4</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$16:$V$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Violation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$4:$V$4</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$18:$V$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>67.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>78.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>STL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$4:$V$4</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$19:$V$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>59.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>73.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2145503456"/>
+        <c:axId val="2145500224"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2145503456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="500000.0"/>
+          <c:min val="100000.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2145500224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2145500224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2145503456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0417660187940949"/>
+          <c:y val="0.747244241816401"/>
+          <c:w val="0.923146283434332"/>
+          <c:h val="0.223237041108881"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3839,6 +9572,126 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5030,6 +10883,1734 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="250">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="250">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="250">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -5087,6 +12668,96 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>37731</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>36443</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>634999</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>193261</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>37731</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>146876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>745435</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>138044</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>28529</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>101232</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>763841</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>101232</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5360,8 +13031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" zoomScale="138" zoomScaleNormal="138" zoomScalePageLayoutView="138" workbookViewId="0">
+      <selection activeCell="AL18" sqref="AL18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6822,7 +14493,7 @@
         <v>100000</v>
       </c>
       <c r="S23" s="1">
-        <f t="shared" ref="S23:AC23" si="6">S4</f>
+        <f t="shared" ref="S23:AB23" si="6">S4</f>
         <v>200000</v>
       </c>
       <c r="T23" s="1">
@@ -6920,7 +14591,7 @@
       </c>
       <c r="N24" s="2"/>
       <c r="Q24" t="str">
-        <f>Q5</f>
+        <f t="shared" ref="Q24:Q39" si="8">Q5</f>
         <v>2-ary</v>
       </c>
       <c r="R24" s="2">
@@ -6928,31 +14599,31 @@
         <v>3</v>
       </c>
       <c r="S24" s="2">
-        <f t="shared" ref="S24:AC24" si="8">S5/MIN(S$5:S$20)</f>
+        <f t="shared" ref="S24:AC24" si="9">S5/MIN(S$5:S$20)</f>
         <v>1.7647058823529411</v>
       </c>
       <c r="T24" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.8695652173913044</v>
       </c>
       <c r="U24" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="V24" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.03125</v>
       </c>
       <c r="W24" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.3137254901960786</v>
       </c>
       <c r="X24" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.6463414634146343</v>
       </c>
       <c r="Y24" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.875</v>
       </c>
       <c r="Z24" s="2">
@@ -6960,15 +14631,15 @@
         <v>3</v>
       </c>
       <c r="AA24" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.0299625468164795</v>
       </c>
       <c r="AB24" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.9792899408284024</v>
       </c>
       <c r="AC24" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.1321928460342146</v>
       </c>
     </row>
@@ -6981,100 +14652,100 @@
         <v>2.8</v>
       </c>
       <c r="C25" s="2">
-        <f t="shared" ref="C25:M25" si="9">C6/MIN(C$5:C$20)</f>
+        <f t="shared" ref="C25:M25" si="10">C6/MIN(C$5:C$20)</f>
         <v>1.65</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.0588235294117647</v>
       </c>
       <c r="E25" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.1935483870967742</v>
       </c>
       <c r="F25" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="G25" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.0227272727272727</v>
       </c>
       <c r="H25" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I25" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.0121951219512195</v>
       </c>
       <c r="J25" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.0194174757281553</v>
       </c>
       <c r="K25" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="L25" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.0272108843537415</v>
       </c>
       <c r="M25" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.0392156862745099</v>
       </c>
       <c r="N25" s="2"/>
       <c r="Q25" t="str">
-        <f>Q6</f>
+        <f t="shared" si="8"/>
         <v>4-ary</v>
       </c>
       <c r="R25" s="2">
-        <f t="shared" ref="R25:AC25" si="10">R6/MIN(R$5:R$20)</f>
+        <f t="shared" ref="R25:AC25" si="11">R6/MIN(R$5:R$20)</f>
         <v>2</v>
       </c>
       <c r="S25" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.1764705882352942</v>
       </c>
       <c r="T25" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.173913043478261</v>
       </c>
       <c r="U25" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.2142857142857142</v>
       </c>
       <c r="V25" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.25</v>
       </c>
       <c r="W25" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.3529411764705883</v>
       </c>
       <c r="X25" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.4634146341463414</v>
       </c>
       <c r="Y25" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.5416666666666667</v>
       </c>
       <c r="Z25" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.5797101449275361</v>
       </c>
       <c r="AA25" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.5767790262172285</v>
       </c>
       <c r="AB25" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.5502958579881656</v>
       </c>
       <c r="AC25" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.6189735614307932</v>
       </c>
     </row>
@@ -7083,104 +14754,104 @@
         <v>2</v>
       </c>
       <c r="B26" s="2">
-        <f t="shared" ref="B26:M39" si="11">B7/MIN(B$5:B$20)</f>
+        <f t="shared" ref="B26:M39" si="12">B7/MIN(B$5:B$20)</f>
         <v>3.1</v>
       </c>
       <c r="C26" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.6</v>
       </c>
       <c r="D26" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.0294117647058822</v>
       </c>
       <c r="E26" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.1612903225806452</v>
       </c>
       <c r="F26" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G26" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="H26" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.0357142857142858</v>
       </c>
       <c r="I26" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.024390243902439</v>
       </c>
       <c r="J26" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="K26" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.0078740157480315</v>
       </c>
       <c r="L26" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.0068027210884354</v>
       </c>
       <c r="M26" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.0117647058823529</v>
       </c>
       <c r="N26" s="2"/>
       <c r="Q26" t="str">
-        <f>Q7</f>
+        <f t="shared" si="8"/>
         <v>8-ary</v>
       </c>
       <c r="R26" s="2">
-        <f t="shared" ref="R26:AC26" si="12">R7/MIN(R$5:R$20)</f>
+        <f t="shared" ref="R26:AC26" si="13">R7/MIN(R$5:R$20)</f>
         <v>2</v>
       </c>
       <c r="S26" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.0588235294117647</v>
       </c>
       <c r="T26" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="U26" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.0357142857142858</v>
       </c>
       <c r="V26" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.0625</v>
       </c>
       <c r="W26" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.1176470588235294</v>
       </c>
       <c r="X26" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.1463414634146341</v>
       </c>
       <c r="Y26" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.1875</v>
       </c>
       <c r="Z26" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.1980676328502415</v>
       </c>
       <c r="AA26" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.2209737827715357</v>
       </c>
       <c r="AB26" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.180473372781065</v>
       </c>
       <c r="AC26" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.2192846034214619</v>
       </c>
     </row>
@@ -7189,104 +14860,104 @@
         <v>3</v>
       </c>
       <c r="B27" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.2</v>
       </c>
       <c r="C27" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.7</v>
       </c>
       <c r="D27" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.0588235294117647</v>
       </c>
       <c r="E27" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.2258064516129032</v>
       </c>
       <c r="F27" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.0263157894736843</v>
       </c>
       <c r="G27" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.0454545454545454</v>
       </c>
       <c r="H27" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.0535714285714286</v>
       </c>
       <c r="I27" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J27" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.0097087378640777</v>
       </c>
       <c r="K27" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="L27" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="M27" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="N27" s="2"/>
       <c r="Q27" t="str">
-        <f>Q8</f>
+        <f t="shared" si="8"/>
         <v>16-ary</v>
       </c>
       <c r="R27" s="2">
-        <f t="shared" ref="R27:AC27" si="13">R8/MIN(R$5:R$20)</f>
+        <f t="shared" ref="R27:AC27" si="14">R8/MIN(R$5:R$20)</f>
         <v>2</v>
       </c>
       <c r="S27" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.0588235294117647</v>
       </c>
       <c r="T27" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="U27" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="V27" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="W27" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="X27" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="Y27" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="Z27" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AA27" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AB27" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AC27" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -7295,104 +14966,104 @@
         <v>4</v>
       </c>
       <c r="B28" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.2</v>
       </c>
       <c r="C28" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.75</v>
       </c>
       <c r="D28" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.3823529411764706</v>
       </c>
       <c r="E28" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.6451612903225805</v>
       </c>
       <c r="F28" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.3421052631578947</v>
       </c>
       <c r="G28" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.4772727272727271</v>
       </c>
       <c r="H28" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.3928571428571428</v>
       </c>
       <c r="I28" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.2317073170731709</v>
       </c>
       <c r="J28" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.1650485436893203</v>
       </c>
       <c r="K28" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.0314960629921259</v>
       </c>
       <c r="L28" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.0612244897959182</v>
       </c>
       <c r="M28" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.9333333333333333</v>
       </c>
       <c r="N28" s="2"/>
       <c r="Q28" t="str">
-        <f>Q9</f>
+        <f t="shared" si="8"/>
         <v>Binomial</v>
       </c>
       <c r="R28" s="2">
-        <f t="shared" ref="R28:AC28" si="14">R9/MIN(R$5:R$20)</f>
+        <f t="shared" ref="R28:AC28" si="15">R9/MIN(R$5:R$20)</f>
         <v>9.5</v>
       </c>
       <c r="S28" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3.2941176470588234</v>
       </c>
       <c r="T28" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3.347826086956522</v>
       </c>
       <c r="U28" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3.4285714285714284</v>
       </c>
       <c r="V28" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3.5</v>
       </c>
       <c r="W28" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3.7058823529411766</v>
       </c>
       <c r="X28" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4.0487804878048781</v>
       </c>
       <c r="Y28" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4.1944444444444446</v>
       </c>
       <c r="Z28" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4.3043478260869561</v>
       </c>
       <c r="AA28" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4.2359550561797752</v>
       </c>
       <c r="AB28" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4.3165680473372783</v>
       </c>
       <c r="AC28" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4.3639191290824257</v>
       </c>
     </row>
@@ -7401,104 +15072,104 @@
         <v>5</v>
       </c>
       <c r="B29" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8.6999999999999993</v>
       </c>
       <c r="C29" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="D29" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.1470588235294117</v>
       </c>
       <c r="E29" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.6129032258064515</v>
       </c>
       <c r="F29" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.9736842105263159</v>
       </c>
       <c r="G29" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="H29" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.9285714285714284</v>
       </c>
       <c r="I29" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.6219512195121952</v>
       </c>
       <c r="J29" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.592233009708738</v>
       </c>
       <c r="K29" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.3700787401574801</v>
       </c>
       <c r="L29" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.3809523809523809</v>
       </c>
       <c r="M29" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.2705882352941176</v>
       </c>
       <c r="N29" s="2"/>
       <c r="Q29" t="str">
-        <f>Q10</f>
+        <f t="shared" si="8"/>
         <v>Fibonacci</v>
       </c>
       <c r="R29" s="2">
-        <f t="shared" ref="R29:AC29" si="15">R10/MIN(R$5:R$20)</f>
+        <f t="shared" ref="R29:AC29" si="16">R10/MIN(R$5:R$20)</f>
         <v>4</v>
       </c>
       <c r="S29" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2.1764705882352939</v>
       </c>
       <c r="T29" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2.2173913043478262</v>
       </c>
       <c r="U29" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2.2857142857142856</v>
       </c>
       <c r="V29" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2.375</v>
       </c>
       <c r="W29" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2.6274509803921569</v>
       </c>
       <c r="X29" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2.9390243902439024</v>
       </c>
       <c r="Y29" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3.1805555555555554</v>
       </c>
       <c r="Z29" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3.2270531400966185</v>
       </c>
       <c r="AA29" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3.3370786516853932</v>
       </c>
       <c r="AB29" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3.3284023668639051</v>
       </c>
       <c r="AC29" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3.5132192846034216</v>
       </c>
     </row>
@@ -7507,104 +15178,104 @@
         <v>6</v>
       </c>
       <c r="B30" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.1</v>
       </c>
       <c r="C30" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6.35</v>
       </c>
       <c r="D30" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4.3529411764705879</v>
       </c>
       <c r="E30" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5.225806451612903</v>
       </c>
       <c r="F30" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4.5526315789473681</v>
       </c>
       <c r="G30" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4.9318181818181817</v>
       </c>
       <c r="H30" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4.9642857142857144</v>
       </c>
       <c r="I30" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4.6951219512195124</v>
       </c>
       <c r="J30" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4.6213592233009706</v>
       </c>
       <c r="K30" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4.2755905511811028</v>
       </c>
       <c r="L30" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4.2380952380952381</v>
       </c>
       <c r="M30" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.9411764705882355</v>
       </c>
       <c r="N30" s="2"/>
       <c r="Q30" t="str">
-        <f>Q11</f>
+        <f t="shared" si="8"/>
         <v>Hollow</v>
       </c>
       <c r="R30" s="2">
-        <f t="shared" ref="R30:AC30" si="16">R11/MIN(R$5:R$20)</f>
+        <f t="shared" ref="R30:AC30" si="17">R11/MIN(R$5:R$20)</f>
         <v>5.5</v>
       </c>
       <c r="S30" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="T30" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2.347826086956522</v>
       </c>
       <c r="U30" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2.5</v>
       </c>
       <c r="V30" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2.6875</v>
       </c>
       <c r="W30" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3.4117647058823528</v>
       </c>
       <c r="X30" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>4.1707317073170733</v>
       </c>
       <c r="Y30" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>4.9861111111111107</v>
       </c>
       <c r="Z30" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>5.3719806763285023</v>
       </c>
       <c r="AA30" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>5.7191011235955056</v>
       </c>
       <c r="AB30" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>5.9467455621301779</v>
       </c>
       <c r="AC30" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>6.2146189735614312</v>
       </c>
     </row>
@@ -7613,104 +15284,104 @@
         <v>7</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5.3</v>
       </c>
       <c r="C31" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.6</v>
       </c>
       <c r="D31" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.2941176470588234</v>
       </c>
       <c r="E31" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.7096774193548385</v>
       </c>
       <c r="F31" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.3421052631578947</v>
       </c>
       <c r="G31" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.3636363636363638</v>
       </c>
       <c r="H31" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.3392857142857144</v>
       </c>
       <c r="I31" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.2073170731707319</v>
       </c>
       <c r="J31" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.174757281553398</v>
       </c>
       <c r="K31" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.1338582677165356</v>
       </c>
       <c r="L31" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.0816326530612246</v>
       </c>
       <c r="M31" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.9333333333333333</v>
       </c>
       <c r="N31" s="2"/>
       <c r="Q31" t="str">
-        <f>Q12</f>
+        <f t="shared" si="8"/>
         <v>Pairing</v>
       </c>
       <c r="R31" s="2">
-        <f t="shared" ref="R31:AC31" si="17">R12/MIN(R$5:R$20)</f>
+        <f t="shared" ref="R31:AC31" si="18">R12/MIN(R$5:R$20)</f>
         <v>3</v>
       </c>
       <c r="S31" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="T31" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="U31" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.0357142857142858</v>
       </c>
       <c r="V31" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.09375</v>
       </c>
       <c r="W31" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.196078431372549</v>
       </c>
       <c r="X31" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.3048780487804879</v>
       </c>
       <c r="Y31" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.375</v>
       </c>
       <c r="Z31" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.3913043478260869</v>
       </c>
       <c r="AA31" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.4232209737827715</v>
       </c>
       <c r="AB31" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.455621301775148</v>
       </c>
       <c r="AC31" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.4027993779160186</v>
       </c>
     </row>
@@ -7719,104 +15390,104 @@
         <v>8</v>
       </c>
       <c r="B32" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>16.5</v>
       </c>
       <c r="C32" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>11.65</v>
       </c>
       <c r="D32" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.5</v>
       </c>
       <c r="E32" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8.806451612903226</v>
       </c>
       <c r="F32" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.5789473684210522</v>
       </c>
       <c r="G32" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8.2727272727272734</v>
       </c>
       <c r="H32" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.7857142857142856</v>
       </c>
       <c r="I32" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6.2804878048780486</v>
       </c>
       <c r="J32" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5.70873786407767</v>
       </c>
       <c r="K32" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5.015748031496063</v>
       </c>
       <c r="L32" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4.6598639455782314</v>
       </c>
       <c r="M32" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.556862745098039</v>
       </c>
       <c r="N32" s="2"/>
       <c r="Q32" t="str">
-        <f>Q13</f>
+        <f t="shared" si="8"/>
         <v>Quake</v>
       </c>
       <c r="R32" s="2">
-        <f t="shared" ref="R32:AC32" si="18">R13/MIN(R$5:R$20)</f>
+        <f t="shared" ref="R32:AC32" si="19">R13/MIN(R$5:R$20)</f>
         <v>7.5</v>
       </c>
       <c r="S32" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>4.4117647058823533</v>
       </c>
       <c r="T32" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>5.3913043478260869</v>
       </c>
       <c r="U32" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>6.4285714285714288</v>
       </c>
       <c r="V32" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>7.375</v>
       </c>
       <c r="W32" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>10.019607843137255</v>
       </c>
       <c r="X32" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>12.829268292682928</v>
       </c>
       <c r="Y32" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>14.805555555555555</v>
       </c>
       <c r="Z32" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>15.44927536231884</v>
       </c>
       <c r="AA32" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>16.04494382022472</v>
       </c>
       <c r="AB32" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>15.976331360946746</v>
       </c>
       <c r="AC32" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>16.948678071539657</v>
       </c>
     </row>
@@ -7825,104 +15496,104 @@
         <v>9</v>
       </c>
       <c r="B33" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>9.1999999999999993</v>
       </c>
       <c r="C33" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5.6</v>
       </c>
       <c r="D33" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.5882352941176472</v>
       </c>
       <c r="E33" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4.064516129032258</v>
       </c>
       <c r="F33" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.4473684210526314</v>
       </c>
       <c r="G33" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.5227272727272729</v>
       </c>
       <c r="H33" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.5</v>
       </c>
       <c r="I33" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.0731707317073171</v>
       </c>
       <c r="J33" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.9611650485436893</v>
       </c>
       <c r="K33" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.6456692913385829</v>
       </c>
       <c r="L33" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.6258503401360542</v>
       </c>
       <c r="M33" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.4588235294117649</v>
       </c>
       <c r="N33" s="2"/>
       <c r="Q33" t="str">
-        <f>Q14</f>
+        <f t="shared" si="8"/>
         <v>Rank-pairing</v>
       </c>
       <c r="R33" s="2">
-        <f t="shared" ref="R33:AC33" si="19">R14/MIN(R$5:R$20)</f>
+        <f t="shared" ref="R33:AC33" si="20">R14/MIN(R$5:R$20)</f>
         <v>5.5</v>
       </c>
       <c r="S33" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2.5882352941176472</v>
       </c>
       <c r="T33" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2.4782608695652173</v>
       </c>
       <c r="U33" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2.5</v>
       </c>
       <c r="V33" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2.65625</v>
       </c>
       <c r="W33" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2.9411764705882355</v>
       </c>
       <c r="X33" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>3.2073170731707319</v>
       </c>
       <c r="Y33" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>3.4722222222222223</v>
       </c>
       <c r="Z33" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>3.6956521739130435</v>
       </c>
       <c r="AA33" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>3.6853932584269664</v>
       </c>
       <c r="AB33" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>3.6213017751479288</v>
       </c>
       <c r="AC33" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>3.8631415241057541</v>
       </c>
     </row>
@@ -7931,104 +15602,104 @@
         <v>10</v>
       </c>
       <c r="B34" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5.3</v>
       </c>
       <c r="C34" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.55</v>
       </c>
       <c r="D34" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.2647058823529411</v>
       </c>
       <c r="E34" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.6774193548387095</v>
       </c>
       <c r="F34" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.236842105263158</v>
       </c>
       <c r="G34" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.3409090909090908</v>
       </c>
       <c r="H34" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.3392857142857144</v>
       </c>
       <c r="I34" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.1585365853658538</v>
       </c>
       <c r="J34" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.1844660194174756</v>
       </c>
       <c r="K34" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.0708661417322833</v>
       </c>
       <c r="L34" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.0544217687074831</v>
       </c>
       <c r="M34" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.0588235294117645</v>
       </c>
       <c r="N34" s="2"/>
       <c r="Q34" t="str">
-        <f>Q15</f>
+        <f t="shared" si="8"/>
         <v>Smooth forest</v>
       </c>
       <c r="R34" s="2">
-        <f t="shared" ref="R34:AC34" si="20">R15/MIN(R$5:R$20)</f>
+        <f t="shared" ref="R34:AC34" si="21">R15/MIN(R$5:R$20)</f>
         <v>2.5</v>
       </c>
       <c r="S34" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.1176470588235294</v>
       </c>
       <c r="T34" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.3043478260869565</v>
       </c>
       <c r="U34" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.2857142857142858</v>
       </c>
       <c r="V34" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.375</v>
       </c>
       <c r="W34" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.5098039215686274</v>
       </c>
       <c r="X34" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.7560975609756098</v>
       </c>
       <c r="Y34" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.9305555555555556</v>
       </c>
       <c r="Z34" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.932367149758454</v>
       </c>
       <c r="AA34" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.9662921348314606</v>
       </c>
       <c r="AB34" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.9230769230769231</v>
       </c>
       <c r="AC34" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2.1150855365474337</v>
       </c>
     </row>
@@ -8037,104 +15708,104 @@
         <v>11</v>
       </c>
       <c r="B35" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5.4</v>
       </c>
       <c r="C35" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.6</v>
       </c>
       <c r="D35" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.2941176470588234</v>
       </c>
       <c r="E35" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.6451612903225805</v>
       </c>
       <c r="F35" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.263157894736842</v>
       </c>
       <c r="G35" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.3409090909090908</v>
       </c>
       <c r="H35" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.3571428571428572</v>
       </c>
       <c r="I35" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.1707317073170733</v>
       </c>
       <c r="J35" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.320388349514563</v>
       </c>
       <c r="K35" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.0708661417322833</v>
       </c>
       <c r="L35" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.0816326530612246</v>
       </c>
       <c r="M35" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.0705882352941178</v>
       </c>
       <c r="N35" s="2"/>
       <c r="Q35" t="str">
-        <f>Q16</f>
+        <f t="shared" si="8"/>
         <v>Smooth one-tree</v>
       </c>
       <c r="R35" s="2">
-        <f t="shared" ref="R35:AC35" si="21">R16/MIN(R$5:R$20)</f>
+        <f t="shared" ref="R35:AC35" si="22">R16/MIN(R$5:R$20)</f>
         <v>2.5</v>
       </c>
       <c r="S35" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.1176470588235294</v>
       </c>
       <c r="T35" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.173913043478261</v>
       </c>
       <c r="U35" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.2142857142857142</v>
       </c>
       <c r="V35" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.25</v>
       </c>
       <c r="W35" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.4509803921568627</v>
       </c>
       <c r="X35" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.6951219512195121</v>
       </c>
       <c r="Y35" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.7569444444444444</v>
       </c>
       <c r="Z35" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.8309178743961352</v>
       </c>
       <c r="AA35" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.8614232209737829</v>
       </c>
       <c r="AB35" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.8047337278106508</v>
       </c>
       <c r="AC35" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.8724727838258164</v>
       </c>
     </row>
@@ -8143,104 +15814,104 @@
         <v>12</v>
       </c>
       <c r="B36" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>19.3</v>
       </c>
       <c r="C36" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>13.8</v>
       </c>
       <c r="D36" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8.764705882352942</v>
       </c>
       <c r="E36" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10.258064516129032</v>
       </c>
       <c r="F36" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8.8684210526315788</v>
       </c>
       <c r="G36" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>9.0681818181818183</v>
       </c>
       <c r="H36" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8.1071428571428577</v>
       </c>
       <c r="I36" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6.6707317073170733</v>
       </c>
       <c r="J36" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6.0388349514563107</v>
       </c>
       <c r="K36" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5.4015748031496065</v>
       </c>
       <c r="L36" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4.9931972789115644</v>
       </c>
       <c r="M36" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.9215686274509802</v>
       </c>
       <c r="N36" s="2"/>
       <c r="Q36" t="str">
-        <f>Q17</f>
+        <f t="shared" si="8"/>
         <v>Strict Fibonacci</v>
       </c>
       <c r="R36" s="2">
-        <f t="shared" ref="R36:AC36" si="22">R17/MIN(R$5:R$20)</f>
+        <f t="shared" ref="R36:AC36" si="23">R17/MIN(R$5:R$20)</f>
         <v>27.5</v>
       </c>
       <c r="S36" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>7.7647058823529411</v>
       </c>
       <c r="T36" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>8.0869565217391308</v>
       </c>
       <c r="U36" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>8.5714285714285712</v>
       </c>
       <c r="V36" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>9.21875</v>
       </c>
       <c r="W36" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>10.549019607843137</v>
       </c>
       <c r="X36" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>12.365853658536585</v>
       </c>
       <c r="Y36" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>13.493055555555555</v>
       </c>
       <c r="Z36" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>14.072463768115941</v>
       </c>
       <c r="AA36" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>14.299625468164795</v>
       </c>
       <c r="AB36" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>14.28698224852071</v>
       </c>
       <c r="AC36" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>14.726283048211508</v>
       </c>
     </row>
@@ -8249,104 +15920,104 @@
         <v>13</v>
       </c>
       <c r="B37" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8.3000000000000007</v>
       </c>
       <c r="C37" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5.85</v>
       </c>
       <c r="D37" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.7352941176470589</v>
       </c>
       <c r="E37" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4.419354838709677</v>
       </c>
       <c r="F37" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.736842105263158</v>
       </c>
       <c r="G37" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.9545454545454546</v>
       </c>
       <c r="H37" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.6428571428571428</v>
       </c>
       <c r="I37" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.2073170731707319</v>
       </c>
       <c r="J37" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.1067961165048543</v>
       </c>
       <c r="K37" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.8661417322834644</v>
       </c>
       <c r="L37" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.7414965986394559</v>
       </c>
       <c r="M37" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.4</v>
       </c>
       <c r="N37" s="2"/>
       <c r="Q37" t="str">
-        <f>Q18</f>
+        <f t="shared" si="8"/>
         <v>Violation</v>
       </c>
       <c r="R37" s="2">
-        <f t="shared" ref="R37:AC37" si="23">R18/MIN(R$5:R$20)</f>
+        <f t="shared" ref="R37:AC37" si="24">R18/MIN(R$5:R$20)</f>
         <v>4</v>
       </c>
       <c r="S37" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2.3529411764705883</v>
       </c>
       <c r="T37" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2.347826086956522</v>
       </c>
       <c r="U37" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2.3928571428571428</v>
       </c>
       <c r="V37" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2.4375</v>
       </c>
       <c r="W37" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2.5490196078431371</v>
       </c>
       <c r="X37" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2.8170731707317072</v>
       </c>
       <c r="Y37" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>3.1458333333333335</v>
       </c>
       <c r="Z37" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>3.1497584541062804</v>
       </c>
       <c r="AA37" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>3.2397003745318353</v>
       </c>
       <c r="AB37" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>3.2307692307692308</v>
       </c>
       <c r="AC37" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>3.3483670295489891</v>
       </c>
     </row>
@@ -8355,104 +16026,104 @@
         <v>14</v>
       </c>
       <c r="B38" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.2999999999999998</v>
       </c>
       <c r="C38" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.9</v>
       </c>
       <c r="D38" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.3529411764705883</v>
       </c>
       <c r="E38" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.6774193548387097</v>
       </c>
       <c r="F38" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.4473684210526316</v>
       </c>
       <c r="G38" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.7045454545454546</v>
       </c>
       <c r="H38" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.8392857142857142</v>
       </c>
       <c r="I38" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.6585365853658536</v>
       </c>
       <c r="J38" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.5631067961165048</v>
       </c>
       <c r="K38" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.4566929133858268</v>
       </c>
       <c r="L38" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.4013605442176871</v>
       </c>
       <c r="M38" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.2117647058823529</v>
       </c>
       <c r="N38" s="2"/>
       <c r="Q38" t="str">
-        <f>Q19</f>
+        <f t="shared" si="8"/>
         <v>STL</v>
       </c>
       <c r="R38" s="2">
-        <f t="shared" ref="R38:AC38" si="24">R19/MIN(R$5:R$20)</f>
+        <f t="shared" ref="R38:AC38" si="25">R19/MIN(R$5:R$20)</f>
         <v>1</v>
       </c>
       <c r="S38" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.4705882352941178</v>
       </c>
       <c r="T38" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.7826086956521738</v>
       </c>
       <c r="U38" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2.1071428571428572</v>
       </c>
       <c r="V38" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2.28125</v>
       </c>
       <c r="W38" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2.9215686274509802</v>
       </c>
       <c r="X38" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>3.8048780487804876</v>
       </c>
       <c r="Y38" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>4.5694444444444446</v>
       </c>
       <c r="Z38" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>5.0386473429951693</v>
       </c>
       <c r="AA38" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>5.1385767790262173</v>
       </c>
       <c r="AB38" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>5.3195266272189352</v>
       </c>
       <c r="AC38" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>5.7620528771384141</v>
       </c>
     </row>
@@ -8461,104 +16132,104 @@
         <v>15</v>
       </c>
       <c r="B39" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="C39" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="D39" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="E39" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="F39" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.0526315789473684</v>
       </c>
       <c r="G39" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.5227272727272727</v>
       </c>
       <c r="H39" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.9285714285714286</v>
       </c>
       <c r="I39" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.9390243902439024</v>
       </c>
       <c r="J39" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.1650485436893203</v>
       </c>
       <c r="K39" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.1417322834645671</v>
       </c>
       <c r="L39" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.0680272108843538</v>
       </c>
       <c r="M39" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.607843137254902</v>
       </c>
       <c r="N39" s="2"/>
       <c r="Q39" t="str">
-        <f>Q20</f>
+        <f t="shared" si="8"/>
         <v>SPFA</v>
       </c>
       <c r="R39" s="2">
-        <f t="shared" ref="R39:AC39" si="25">R20/MIN(R$5:R$20)</f>
+        <f t="shared" ref="R39:AC39" si="26">R20/MIN(R$5:R$20)</f>
         <v>1</v>
       </c>
       <c r="S39" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>23.294117647058822</v>
       </c>
       <c r="T39" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>35.043478260869563</v>
       </c>
       <c r="U39" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>43.892857142857146</v>
       </c>
       <c r="V39" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>50.375</v>
       </c>
       <c r="W39" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>82.019607843137251</v>
       </c>
       <c r="X39" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>129.76829268292684</v>
       </c>
       <c r="Y39" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>198.75</v>
       </c>
       <c r="Z39" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>243.19806763285024</v>
       </c>
       <c r="AA39" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>280.70411985018728</v>
       </c>
       <c r="AB39" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>306.38757396449705</v>
       </c>
       <c r="AC39" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>403.71384136858478</v>
       </c>
     </row>

--- a/Data/Dijkstra.xlsx
+++ b/Data/Dijkstra.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="14180" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="23">
   <si>
     <t>2-ary</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>Randomly generated graphs using gen.cpp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -186,6 +189,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2287,11 +2291,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2146148112"/>
-        <c:axId val="2146151616"/>
+        <c:axId val="-2059659968"/>
+        <c:axId val="-2059657632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2146148112"/>
+        <c:axId val="-2059659968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0E7"/>
@@ -2349,12 +2353,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2146151616"/>
+        <c:crossAx val="-2059657632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2146151616"/>
+        <c:axId val="-2059657632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2412,7 +2416,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2146148112"/>
+        <c:crossAx val="-2059659968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2426,6 +2430,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2532,6 +2537,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3591,11 +3597,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2146211600"/>
-        <c:axId val="2146214960"/>
+        <c:axId val="-2077104896"/>
+        <c:axId val="-2059062672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2146211600"/>
+        <c:axId val="-2077104896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0E7"/>
@@ -3653,12 +3659,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2146214960"/>
+        <c:crossAx val="-2059062672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2146214960"/>
+        <c:axId val="-2059062672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3715,7 +3721,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2146211600"/>
+        <c:crossAx val="-2077104896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3729,6 +3735,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5817,11 +5824,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2146336912"/>
-        <c:axId val="2146340144"/>
+        <c:axId val="-2059189728"/>
+        <c:axId val="-2077123616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2146336912"/>
+        <c:axId val="-2059189728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0E7"/>
@@ -5842,6 +5849,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5879,12 +5887,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2146340144"/>
+        <c:crossAx val="-2077123616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2146340144"/>
+        <c:axId val="-2077123616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5941,7 +5949,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2146336912"/>
+        <c:crossAx val="-2059189728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7800,11 +7808,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2145600160"/>
-        <c:axId val="2145596928"/>
+        <c:axId val="-2059633680"/>
+        <c:axId val="-2074383024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2145600160"/>
+        <c:axId val="-2059633680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0E7"/>
@@ -7862,12 +7870,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2145596928"/>
+        <c:crossAx val="-2074383024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2145596928"/>
+        <c:axId val="-2074383024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2050.0"/>
@@ -7927,7 +7935,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2145600160"/>
+        <c:crossAx val="-2059633680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9316,11 +9324,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2145503456"/>
-        <c:axId val="2145500224"/>
+        <c:axId val="-2078005168"/>
+        <c:axId val="-2058765648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2145503456"/>
+        <c:axId val="-2078005168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500000.0"/>
@@ -9379,12 +9387,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2145500224"/>
+        <c:crossAx val="-2058765648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2145500224"/>
+        <c:axId val="-2058765648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9404,6 +9412,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -9441,7 +9450,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2145503456"/>
+        <c:crossAx val="-2078005168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9488,6 +9497,2169 @@
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-AU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0933334233269868"/>
+          <c:y val="0.0582734126486915"/>
+          <c:w val="0.850128542530761"/>
+          <c:h val="0.629377173203011"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2-ary</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$L$4</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$L$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>54.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>89.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>116.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>141.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>168.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4-ary</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$L$4</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$6:$L$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>56.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>83.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>105.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>127.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>151.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8-ary</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$L$4</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$7:$L$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>58.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>84.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>103.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>148.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16-ary</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$L$4</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$8:$L$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>46.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>59.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>82.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>104.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>127.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>147.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Binomial</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$L$4</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$9:$L$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>72.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>82.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>89.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>109.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>134.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>183.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>223.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>258.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>303.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fibonacci</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$L$4</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$L$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>87.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>107.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>112.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>113.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>132.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>164.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>215.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>267.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>301.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>350.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hollow</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="plus"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$L$4</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$11:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>71.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>127.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>148.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>162.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>173.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>217.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>278.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>385.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>476.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>543.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>623.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pairing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dot"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$L$4</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$12:$L$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>53.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>78.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>84.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>89.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>104.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>131.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>181.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>224.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>271.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>306.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Quake</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dash"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$L$4</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$13:$L$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>165.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>233.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>255.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>273.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>288.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>364.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>436.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>515.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>588.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>637.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>685.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rank-pairing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$L$4</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$14:$L$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>92.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>112.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>122.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>126.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>131.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>155.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>196.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>252.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>305.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>336.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>386.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Smooth forest</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$L$4</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$15:$L$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>53.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>71.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>83.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>103.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>131.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>177.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>225.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>263.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>302.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Smooth one-tree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$L$4</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$16:$L$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>54.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>78.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>82.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>86.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>103.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>132.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>178.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>239.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>263.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>306.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Strict Fibonacci</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$L$4</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$17:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>193.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>276.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>298.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>318.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>337.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>399.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>454.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>547.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>622.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>686.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>734.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Violation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$L$4</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$18:$L$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>83.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>117.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>127.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>137.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>142.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>174.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>204.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>263.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>320.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>364.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>403.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2059001200"/>
+        <c:axId val="-2051459584"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2059001200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.0E7"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="CMU Serif Roman" charset="0"/>
+                    <a:ea typeface="CMU Serif Roman" charset="0"/>
+                    <a:cs typeface="CMU Serif Roman" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="CMU Serif Roman" charset="0"/>
+                    <a:ea typeface="CMU Serif Roman" charset="0"/>
+                    <a:cs typeface="CMU Serif Roman" charset="0"/>
+                  </a:rPr>
+                  <a:t>Number of edges</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="CMU Serif Roman" charset="0"/>
+                  <a:ea typeface="CMU Serif Roman" charset="0"/>
+                  <a:cs typeface="CMU Serif Roman" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="CMU Serif Roman" charset="0"/>
+                <a:ea typeface="CMU Serif Roman" charset="0"/>
+                <a:cs typeface="CMU Serif Roman" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2051459584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2051459584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="CMU Serif Roman" charset="0"/>
+                    <a:ea typeface="CMU Serif Roman" charset="0"/>
+                    <a:cs typeface="CMU Serif Roman" charset="0"/>
+                  </a:rPr>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="0" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="CMU Serif Roman" charset="0"/>
+                    <a:ea typeface="CMU Serif Roman" charset="0"/>
+                    <a:cs typeface="CMU Serif Roman" charset="0"/>
+                  </a:rPr>
+                  <a:t> Taken (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" b="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="CMU Serif Roman" charset="0"/>
+                  <a:ea typeface="CMU Serif Roman" charset="0"/>
+                  <a:cs typeface="CMU Serif Roman" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="CMU Serif Roman" charset="0"/>
+                <a:ea typeface="CMU Serif Roman" charset="0"/>
+                <a:cs typeface="CMU Serif Roman" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2059001200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="CMU Serif Roman" charset="0"/>
+              <a:ea typeface="CMU Serif Roman" charset="0"/>
+              <a:cs typeface="CMU Serif Roman" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -9692,6 +11864,46 @@
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -12611,6 +14823,582 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="250">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -12758,6 +15546,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>360821</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>88305</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>356074</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>94953</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13029,10 +15847,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC70"/>
+  <dimension ref="A1:AD70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" zoomScale="138" zoomScaleNormal="138" zoomScalePageLayoutView="138" workbookViewId="0">
-      <selection activeCell="AL18" sqref="AL18"/>
+    <sheetView tabSelected="1" topLeftCell="K32" zoomScale="79" zoomScaleNormal="79" zoomScalePageLayoutView="79" workbookViewId="0">
+      <selection activeCell="AN15" sqref="AN15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14110,7 +16928,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -14190,7 +17008,7 @@
         <v>9469</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -14270,7 +17088,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -14350,7 +17168,7 @@
         <v>3705</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -14430,7 +17248,7 @@
         <v>259588</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -14438,7 +17256,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B23" s="1">
         <f>B4</f>
         <v>100000</v>
@@ -14536,8 +17354,11 @@
         <f>AC4</f>
         <v>20000000</v>
       </c>
+      <c r="AD23" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -14643,7 +17464,7 @@
         <v>3.1321928460342146</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>1</v>
       </c>
@@ -14749,7 +17570,7 @@
         <v>1.6189735614307932</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>2</v>
       </c>
@@ -14855,7 +17676,7 @@
         <v>1.2192846034214619</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>3</v>
       </c>
@@ -14961,7 +17782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -15067,7 +17888,7 @@
         <v>4.3639191290824257</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -15173,7 +17994,7 @@
         <v>3.5132192846034216</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -15279,7 +18100,7 @@
         <v>6.2146189735614312</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -15385,7 +18206,7 @@
         <v>1.4027993779160186</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>8</v>
       </c>

--- a/Data/Dijkstra.xlsx
+++ b/Data/Dijkstra.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="23">
   <si>
     <t>2-ary</t>
   </si>
@@ -2291,11 +2291,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2059659968"/>
-        <c:axId val="-2059657632"/>
+        <c:axId val="-2142341952"/>
+        <c:axId val="-2142338448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2059659968"/>
+        <c:axId val="-2142341952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0E7"/>
@@ -2353,12 +2353,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2059657632"/>
+        <c:crossAx val="-2142338448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2059657632"/>
+        <c:axId val="-2142338448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2416,7 +2416,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2059659968"/>
+        <c:crossAx val="-2142341952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3597,11 +3597,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2077104896"/>
-        <c:axId val="-2059062672"/>
+        <c:axId val="-2141447840"/>
+        <c:axId val="-2141444480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2077104896"/>
+        <c:axId val="-2141447840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0E7"/>
@@ -3659,12 +3659,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2059062672"/>
+        <c:crossAx val="-2141444480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2059062672"/>
+        <c:axId val="-2141444480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3721,7 +3721,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2077104896"/>
+        <c:crossAx val="-2141447840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5824,11 +5824,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2059189728"/>
-        <c:axId val="-2077123616"/>
+        <c:axId val="-2142827744"/>
+        <c:axId val="-2142830992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2059189728"/>
+        <c:axId val="-2142827744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0E7"/>
@@ -5887,12 +5887,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2077123616"/>
+        <c:crossAx val="-2142830992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2077123616"/>
+        <c:axId val="-2142830992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5949,7 +5949,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2059189728"/>
+        <c:crossAx val="-2142827744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7808,11 +7808,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2059633680"/>
-        <c:axId val="-2074383024"/>
+        <c:axId val="-2141310528"/>
+        <c:axId val="-2141307296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2059633680"/>
+        <c:axId val="-2141310528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0E7"/>
@@ -7870,12 +7870,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2074383024"/>
+        <c:crossAx val="-2141307296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2074383024"/>
+        <c:axId val="-2141307296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2050.0"/>
@@ -7935,7 +7935,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2059633680"/>
+        <c:crossAx val="-2141310528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9324,11 +9324,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2078005168"/>
-        <c:axId val="-2058765648"/>
+        <c:axId val="-2147342544"/>
+        <c:axId val="-2147345776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2078005168"/>
+        <c:axId val="-2147342544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500000.0"/>
@@ -9387,12 +9387,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2058765648"/>
+        <c:crossAx val="-2147345776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2058765648"/>
+        <c:axId val="-2147345776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9450,7 +9450,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2078005168"/>
+        <c:crossAx val="-2147342544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11374,11 +11374,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2059001200"/>
-        <c:axId val="-2051459584"/>
+        <c:axId val="-2143017584"/>
+        <c:axId val="-2143023680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2059001200"/>
+        <c:axId val="-2143017584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0E7"/>
@@ -11490,12 +11490,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2051459584"/>
+        <c:crossAx val="-2143023680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2051459584"/>
+        <c:axId val="-2143023680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11625,7 +11625,3298 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2059001200"/>
+        <c:crossAx val="-2143017584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="CMU Serif Roman" charset="0"/>
+              <a:ea typeface="CMU Serif Roman" charset="0"/>
+              <a:cs typeface="CMU Serif Roman" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-AU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="CMU Serif Roman" charset="0"/>
+                <a:ea typeface="CMU Serif Roman" charset="0"/>
+                <a:cs typeface="CMU Serif Roman" charset="0"/>
+              </a:rPr>
+              <a:t>Dijkstra's algorithm</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="CMU Serif Roman" charset="0"/>
+                <a:ea typeface="CMU Serif Roman" charset="0"/>
+                <a:cs typeface="CMU Serif Roman" charset="0"/>
+              </a:rPr>
+              <a:t> on a random graph</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="CMU Serif Roman" charset="0"/>
+              <a:ea typeface="CMU Serif Roman" charset="0"/>
+              <a:cs typeface="CMU Serif Roman" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0965799256505576"/>
+          <c:y val="0.112218844984802"/>
+          <c:w val="0.845799256505576"/>
+          <c:h val="0.571346480626092"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$131</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2-ary</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$130:$L$130</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$131:$L$131</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>89.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>116.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>141.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>168.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$132</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4-ary</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$130:$L$130</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$132:$L$132</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>83.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>105.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>127.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>151.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$133</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8-ary</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$130:$L$130</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$133:$L$133</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>84.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>103.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>148.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$134</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16-ary</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$130:$L$130</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$134:$L$134</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>59.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>82.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>104.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>127.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>147.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$135</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Binomial</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$130:$L$130</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$135:$L$135</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>72.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>89.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>109.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>134.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>183.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>223.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>258.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>303.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$136</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fibonacci</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$130:$L$130</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$136:$L$136</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>87.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>113.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>132.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>164.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>215.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>267.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>301.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>350.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$138</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pairing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dot"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$130:$L$130</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$138:$L$138</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>53.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>89.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>104.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>131.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>181.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>224.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>271.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>306.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$140</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rank-pairing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$130:$L$130</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$140:$L$140</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>92.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>131.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>155.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>196.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>252.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>305.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>336.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>386.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$141</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Smooth forest</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$130:$L$130</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$141:$L$141</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>53.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>103.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>131.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>177.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>225.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>263.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>302.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$142</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Smooth one-tree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$130:$L$130</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$142:$L$142</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>54.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>86.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>103.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>132.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>178.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>239.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>263.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>306.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$144</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Violation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$130:$L$130</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$144:$L$144</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>83.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>142.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>174.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>204.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>263.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>320.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>364.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>403.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2080778432"/>
+        <c:axId val="-2080779856"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2080778432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.0E7"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="CMU Serif Roman" charset="0"/>
+                    <a:ea typeface="CMU Serif Roman" charset="0"/>
+                    <a:cs typeface="CMU Serif Roman" charset="0"/>
+                  </a:rPr>
+                  <a:t>Number of edges</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="CMU Serif Roman" charset="0"/>
+                <a:ea typeface="CMU Serif Roman" charset="0"/>
+                <a:cs typeface="CMU Serif Roman" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2080779856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2080779856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="420.0"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="CMU Serif Roman" charset="0"/>
+                    <a:ea typeface="CMU Serif Roman" charset="0"/>
+                    <a:cs typeface="CMU Serif Roman" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="CMU Serif Roman" charset="0"/>
+                    <a:ea typeface="CMU Serif Roman" charset="0"/>
+                    <a:cs typeface="CMU Serif Roman" charset="0"/>
+                  </a:rPr>
+                  <a:t>Time taken (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="CMU Serif Roman" charset="0"/>
+                  <a:ea typeface="CMU Serif Roman" charset="0"/>
+                  <a:cs typeface="CMU Serif Roman" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="CMU Serif Roman" charset="0"/>
+                <a:ea typeface="CMU Serif Roman" charset="0"/>
+                <a:cs typeface="CMU Serif Roman" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2080778432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="CMU Serif Roman" charset="0"/>
+              <a:ea typeface="CMU Serif Roman" charset="0"/>
+              <a:cs typeface="CMU Serif Roman" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-AU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="CMU Serif Roman" charset="0"/>
+                <a:ea typeface="CMU Serif Roman" charset="0"/>
+                <a:cs typeface="CMU Serif Roman" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="CMU Serif Roman" charset="0"/>
+                <a:ea typeface="CMU Serif Roman" charset="0"/>
+                <a:cs typeface="CMU Serif Roman" charset="0"/>
+              </a:rPr>
+              <a:t>Dijkstra's algorithm on a worst case graph</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="CMU Serif Roman" charset="0"/>
+              <a:ea typeface="CMU Serif Roman" charset="0"/>
+              <a:cs typeface="CMU Serif Roman" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0967172421904727"/>
+          <c:y val="0.0981383547045055"/>
+          <c:w val="0.850179064789608"/>
+          <c:h val="0.623801986441459"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Z$74</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2-ary</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AA$73:$AH$73</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AA$74:$AH$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>118.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>217.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>414.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>621.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>809.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1007.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Z$75</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4-ary</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AA$73:$AH$73</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AA$75:$AH$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>69.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>222.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>327.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>421.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>524.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Z$76</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8-ary</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AA$73:$AH$73</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AA$76:$AH$76</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>57.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>94.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>171.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>248.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>326.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>399.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Z$77</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16-ary</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AA$73:$AH$73</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AA$77:$AH$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>82.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>144.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>207.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>267.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>338.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Z$78</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Binomial</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AA$73:$AH$73</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AA$78:$AH$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>112.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>189.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>332.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>604.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>891.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1131.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1459.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Z$79</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fibonacci</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AA$73:$AH$73</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AA$79:$AH$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>134.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>241.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>458.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>668.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>891.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1125.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Z$81</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pairing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dot"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AA$73:$AH$73</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AA$81:$AH$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>61.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>107.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>198.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>288.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>380.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>492.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Z$83</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rank-pairing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AA$73:$AH$73</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AA$83:$AH$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>263.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>765.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>984.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1224.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Z$84</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Smooth forest</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AA$73:$AH$73</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AA$84:$AH$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>144.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>278.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>400.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>525.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>650.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Z$85</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Smooth one-tree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AA$73:$AH$73</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AA$85:$AH$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>74.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>139.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>253.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>379.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>497.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>610.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Z$87</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Violation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AA$73:$AH$73</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AA$87:$AH$87</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>78.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>130.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>231.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>453.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>652.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>865.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1092.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2084086896"/>
+        <c:axId val="-2083439808"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2084086896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.0E7"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="CMU Serif Roman" charset="0"/>
+                    <a:ea typeface="CMU Serif Roman" charset="0"/>
+                    <a:cs typeface="CMU Serif Roman" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="CMU Serif Roman" charset="0"/>
+                    <a:ea typeface="CMU Serif Roman" charset="0"/>
+                    <a:cs typeface="CMU Serif Roman" charset="0"/>
+                  </a:rPr>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="0" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="CMU Serif Roman" charset="0"/>
+                    <a:ea typeface="CMU Serif Roman" charset="0"/>
+                    <a:cs typeface="CMU Serif Roman" charset="0"/>
+                  </a:rPr>
+                  <a:t> of edges</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" b="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="CMU Serif Roman" charset="0"/>
+                  <a:ea typeface="CMU Serif Roman" charset="0"/>
+                  <a:cs typeface="CMU Serif Roman" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="CMU Serif Roman" charset="0"/>
+                  <a:ea typeface="CMU Serif Roman" charset="0"/>
+                  <a:cs typeface="CMU Serif Roman" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="CMU Serif Roman" charset="0"/>
+                <a:ea typeface="CMU Serif Roman" charset="0"/>
+                <a:cs typeface="CMU Serif Roman" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2083439808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2083439808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1500.0"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="CMU Serif Roman" charset="0"/>
+                    <a:ea typeface="CMU Serif Roman" charset="0"/>
+                    <a:cs typeface="CMU Serif Roman" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="CMU Serif Roman" charset="0"/>
+                    <a:ea typeface="CMU Serif Roman" charset="0"/>
+                    <a:cs typeface="CMU Serif Roman" charset="0"/>
+                  </a:rPr>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="0" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="CMU Serif Roman" charset="0"/>
+                    <a:ea typeface="CMU Serif Roman" charset="0"/>
+                    <a:cs typeface="CMU Serif Roman" charset="0"/>
+                  </a:rPr>
+                  <a:t> taken (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" b="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="CMU Serif Roman" charset="0"/>
+                  <a:ea typeface="CMU Serif Roman" charset="0"/>
+                  <a:cs typeface="CMU Serif Roman" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="CMU Serif Roman" charset="0"/>
+                  <a:ea typeface="CMU Serif Roman" charset="0"/>
+                  <a:cs typeface="CMU Serif Roman" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="CMU Serif Roman" charset="0"/>
+                <a:ea typeface="CMU Serif Roman" charset="0"/>
+                <a:cs typeface="CMU Serif Roman" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2084086896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11904,6 +15195,86 @@
 </file>
 
 <file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -15399,6 +18770,1158 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="250">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="250">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -15576,6 +20099,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>424698</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>198830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>464301</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>81936</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -15847,10 +20430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD70"/>
+  <dimension ref="A1:AL144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K32" zoomScale="79" zoomScaleNormal="79" zoomScalePageLayoutView="79" workbookViewId="0">
-      <selection activeCell="AN15" sqref="AN15"/>
+    <sheetView tabSelected="1" topLeftCell="AI73" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="AR80" sqref="AR80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19183,7 +23766,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>7</v>
       </c>
@@ -19221,7 +23804,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>8</v>
       </c>
@@ -19259,7 +23842,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>9</v>
       </c>
@@ -19297,7 +23880,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>19</v>
       </c>
@@ -19335,7 +23918,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>12</v>
       </c>
@@ -19373,7 +23956,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>13</v>
       </c>
@@ -19408,6 +23991,884 @@
         <v>364</v>
       </c>
       <c r="L70">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="73" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="Z73" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA73" s="1">
+        <v>100000</v>
+      </c>
+      <c r="AB73" s="1">
+        <v>500000</v>
+      </c>
+      <c r="AC73" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="AD73" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="AE73" s="1">
+        <v>4000000</v>
+      </c>
+      <c r="AF73" s="1">
+        <v>6000000</v>
+      </c>
+      <c r="AG73" s="1">
+        <v>8000000</v>
+      </c>
+      <c r="AH73" s="1">
+        <v>10000000</v>
+      </c>
+      <c r="AI73" s="1"/>
+      <c r="AJ73" s="1"/>
+      <c r="AK73" s="1"/>
+      <c r="AL73" s="1"/>
+    </row>
+    <row r="74" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="Z74" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>6</v>
+      </c>
+      <c r="AB74">
+        <v>65</v>
+      </c>
+      <c r="AC74">
+        <v>118</v>
+      </c>
+      <c r="AD74">
+        <v>217</v>
+      </c>
+      <c r="AE74">
+        <v>414</v>
+      </c>
+      <c r="AF74">
+        <v>621</v>
+      </c>
+      <c r="AG74">
+        <v>809</v>
+      </c>
+      <c r="AH74">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="75" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="Z75" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA75">
+        <v>4</v>
+      </c>
+      <c r="AB75">
+        <v>40</v>
+      </c>
+      <c r="AC75">
+        <v>69</v>
+      </c>
+      <c r="AD75">
+        <v>120</v>
+      </c>
+      <c r="AE75">
+        <v>222</v>
+      </c>
+      <c r="AF75">
+        <v>327</v>
+      </c>
+      <c r="AG75">
+        <v>421</v>
+      </c>
+      <c r="AH75">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="76" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="Z76" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA76">
+        <v>4</v>
+      </c>
+      <c r="AB76">
+        <v>34</v>
+      </c>
+      <c r="AC76">
+        <v>57</v>
+      </c>
+      <c r="AD76">
+        <v>94</v>
+      </c>
+      <c r="AE76">
+        <v>171</v>
+      </c>
+      <c r="AF76">
+        <v>248</v>
+      </c>
+      <c r="AG76">
+        <v>326</v>
+      </c>
+      <c r="AH76">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="77" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="Z77" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA77">
+        <v>4</v>
+      </c>
+      <c r="AB77">
+        <v>32</v>
+      </c>
+      <c r="AC77">
+        <v>51</v>
+      </c>
+      <c r="AD77">
+        <v>82</v>
+      </c>
+      <c r="AE77">
+        <v>144</v>
+      </c>
+      <c r="AF77">
+        <v>207</v>
+      </c>
+      <c r="AG77">
+        <v>267</v>
+      </c>
+      <c r="AH77">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="78" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="Z78" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA78">
+        <v>19</v>
+      </c>
+      <c r="AB78">
+        <v>112</v>
+      </c>
+      <c r="AC78">
+        <v>189</v>
+      </c>
+      <c r="AD78">
+        <v>332</v>
+      </c>
+      <c r="AE78">
+        <v>604</v>
+      </c>
+      <c r="AF78">
+        <v>891</v>
+      </c>
+      <c r="AG78">
+        <v>1131</v>
+      </c>
+      <c r="AH78">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="79" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="Z79" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA79">
+        <v>8</v>
+      </c>
+      <c r="AB79">
+        <v>76</v>
+      </c>
+      <c r="AC79">
+        <v>134</v>
+      </c>
+      <c r="AD79">
+        <v>241</v>
+      </c>
+      <c r="AE79">
+        <v>458</v>
+      </c>
+      <c r="AF79">
+        <v>668</v>
+      </c>
+      <c r="AG79">
+        <v>891</v>
+      </c>
+      <c r="AH79">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="80" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="Z80" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA80">
+        <v>11</v>
+      </c>
+      <c r="AB80">
+        <v>86</v>
+      </c>
+      <c r="AC80">
+        <v>174</v>
+      </c>
+      <c r="AD80">
+        <v>342</v>
+      </c>
+      <c r="AE80">
+        <v>718</v>
+      </c>
+      <c r="AF80">
+        <v>1112</v>
+      </c>
+      <c r="AG80">
+        <v>1527</v>
+      </c>
+      <c r="AH80">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="81" spans="26:34" x14ac:dyDescent="0.2">
+      <c r="Z81" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA81">
+        <v>6</v>
+      </c>
+      <c r="AB81">
+        <v>35</v>
+      </c>
+      <c r="AC81">
+        <v>61</v>
+      </c>
+      <c r="AD81">
+        <v>107</v>
+      </c>
+      <c r="AE81">
+        <v>198</v>
+      </c>
+      <c r="AF81">
+        <v>288</v>
+      </c>
+      <c r="AG81">
+        <v>380</v>
+      </c>
+      <c r="AH81">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="82" spans="26:34" x14ac:dyDescent="0.2">
+      <c r="Z82" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA82">
+        <v>15</v>
+      </c>
+      <c r="AB82">
+        <v>236</v>
+      </c>
+      <c r="AC82">
+        <v>511</v>
+      </c>
+      <c r="AD82">
+        <v>1052</v>
+      </c>
+      <c r="AE82">
+        <v>2132</v>
+      </c>
+      <c r="AF82">
+        <v>3198</v>
+      </c>
+      <c r="AG82">
+        <v>4284</v>
+      </c>
+      <c r="AH82">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="83" spans="26:34" x14ac:dyDescent="0.2">
+      <c r="Z83" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA83">
+        <v>11</v>
+      </c>
+      <c r="AB83">
+        <v>85</v>
+      </c>
+      <c r="AC83">
+        <v>150</v>
+      </c>
+      <c r="AD83">
+        <v>263</v>
+      </c>
+      <c r="AE83">
+        <v>500</v>
+      </c>
+      <c r="AF83">
+        <v>765</v>
+      </c>
+      <c r="AG83">
+        <v>984</v>
+      </c>
+      <c r="AH83">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="84" spans="26:34" x14ac:dyDescent="0.2">
+      <c r="Z84" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA84">
+        <v>5</v>
+      </c>
+      <c r="AB84">
+        <v>44</v>
+      </c>
+      <c r="AC84">
+        <v>77</v>
+      </c>
+      <c r="AD84">
+        <v>144</v>
+      </c>
+      <c r="AE84">
+        <v>278</v>
+      </c>
+      <c r="AF84">
+        <v>400</v>
+      </c>
+      <c r="AG84">
+        <v>525</v>
+      </c>
+      <c r="AH84">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="85" spans="26:34" x14ac:dyDescent="0.2">
+      <c r="Z85" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA85">
+        <v>5</v>
+      </c>
+      <c r="AB85">
+        <v>40</v>
+      </c>
+      <c r="AC85">
+        <v>74</v>
+      </c>
+      <c r="AD85">
+        <v>139</v>
+      </c>
+      <c r="AE85">
+        <v>253</v>
+      </c>
+      <c r="AF85">
+        <v>379</v>
+      </c>
+      <c r="AG85">
+        <v>497</v>
+      </c>
+      <c r="AH85">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="86" spans="26:34" x14ac:dyDescent="0.2">
+      <c r="Z86" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA86">
+        <v>55</v>
+      </c>
+      <c r="AB86">
+        <v>295</v>
+      </c>
+      <c r="AC86">
+        <v>538</v>
+      </c>
+      <c r="AD86">
+        <v>1014</v>
+      </c>
+      <c r="AE86">
+        <v>1943</v>
+      </c>
+      <c r="AF86">
+        <v>2913</v>
+      </c>
+      <c r="AG86">
+        <v>3818</v>
+      </c>
+      <c r="AH86">
+        <v>4829</v>
+      </c>
+    </row>
+    <row r="87" spans="26:34" x14ac:dyDescent="0.2">
+      <c r="Z87" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA87">
+        <v>8</v>
+      </c>
+      <c r="AB87">
+        <v>78</v>
+      </c>
+      <c r="AC87">
+        <v>130</v>
+      </c>
+      <c r="AD87">
+        <v>231</v>
+      </c>
+      <c r="AE87">
+        <v>453</v>
+      </c>
+      <c r="AF87">
+        <v>652</v>
+      </c>
+      <c r="AG87">
+        <v>865</v>
+      </c>
+      <c r="AH87">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>17</v>
+      </c>
+      <c r="B130" s="1">
+        <v>100000</v>
+      </c>
+      <c r="C130" s="1">
+        <v>500000</v>
+      </c>
+      <c r="D130" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="E130" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="F130" s="1">
+        <v>4000000</v>
+      </c>
+      <c r="G130" s="1">
+        <v>6000000</v>
+      </c>
+      <c r="H130" s="1">
+        <v>8000000</v>
+      </c>
+      <c r="I130" s="1">
+        <v>10000000</v>
+      </c>
+      <c r="J130" s="1"/>
+      <c r="K130" s="1"/>
+      <c r="L130" s="1"/>
+      <c r="M130" s="1"/>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>0</v>
+      </c>
+      <c r="B131">
+        <v>34</v>
+      </c>
+      <c r="C131">
+        <v>45</v>
+      </c>
+      <c r="D131">
+        <v>54</v>
+      </c>
+      <c r="E131">
+        <v>70</v>
+      </c>
+      <c r="F131">
+        <v>89</v>
+      </c>
+      <c r="G131">
+        <v>116</v>
+      </c>
+      <c r="H131">
+        <v>141</v>
+      </c>
+      <c r="I131">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>1</v>
+      </c>
+      <c r="B132">
+        <v>28</v>
+      </c>
+      <c r="C132">
+        <v>38</v>
+      </c>
+      <c r="D132">
+        <v>45</v>
+      </c>
+      <c r="E132">
+        <v>56</v>
+      </c>
+      <c r="F132">
+        <v>83</v>
+      </c>
+      <c r="G132">
+        <v>105</v>
+      </c>
+      <c r="H132">
+        <v>127</v>
+      </c>
+      <c r="I132">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>2</v>
+      </c>
+      <c r="B133">
+        <v>31</v>
+      </c>
+      <c r="C133">
+        <v>38</v>
+      </c>
+      <c r="D133">
+        <v>44</v>
+      </c>
+      <c r="E133">
+        <v>58</v>
+      </c>
+      <c r="F133">
+        <v>84</v>
+      </c>
+      <c r="G133">
+        <v>103</v>
+      </c>
+      <c r="H133">
+        <v>128</v>
+      </c>
+      <c r="I133">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>3</v>
+      </c>
+      <c r="B134">
+        <v>32</v>
+      </c>
+      <c r="C134">
+        <v>39</v>
+      </c>
+      <c r="D134">
+        <v>46</v>
+      </c>
+      <c r="E134">
+        <v>59</v>
+      </c>
+      <c r="F134">
+        <v>82</v>
+      </c>
+      <c r="G134">
+        <v>104</v>
+      </c>
+      <c r="H134">
+        <v>127</v>
+      </c>
+      <c r="I134">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>4</v>
+      </c>
+      <c r="B135">
+        <v>72</v>
+      </c>
+      <c r="C135">
+        <v>89</v>
+      </c>
+      <c r="D135">
+        <v>109</v>
+      </c>
+      <c r="E135">
+        <v>134</v>
+      </c>
+      <c r="F135">
+        <v>183</v>
+      </c>
+      <c r="G135">
+        <v>223</v>
+      </c>
+      <c r="H135">
+        <v>258</v>
+      </c>
+      <c r="I135">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>5</v>
+      </c>
+      <c r="B136">
+        <v>87</v>
+      </c>
+      <c r="C136">
+        <v>113</v>
+      </c>
+      <c r="D136">
+        <v>132</v>
+      </c>
+      <c r="E136">
+        <v>164</v>
+      </c>
+      <c r="F136">
+        <v>215</v>
+      </c>
+      <c r="G136">
+        <v>267</v>
+      </c>
+      <c r="H136">
+        <v>301</v>
+      </c>
+      <c r="I136">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>6</v>
+      </c>
+      <c r="B137">
+        <v>71</v>
+      </c>
+      <c r="C137">
+        <v>173</v>
+      </c>
+      <c r="D137">
+        <v>217</v>
+      </c>
+      <c r="E137">
+        <v>278</v>
+      </c>
+      <c r="F137">
+        <v>385</v>
+      </c>
+      <c r="G137">
+        <v>476</v>
+      </c>
+      <c r="H137">
+        <v>543</v>
+      </c>
+      <c r="I137">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>7</v>
+      </c>
+      <c r="B138">
+        <v>53</v>
+      </c>
+      <c r="C138">
+        <v>89</v>
+      </c>
+      <c r="D138">
+        <v>104</v>
+      </c>
+      <c r="E138">
+        <v>131</v>
+      </c>
+      <c r="F138">
+        <v>181</v>
+      </c>
+      <c r="G138">
+        <v>224</v>
+      </c>
+      <c r="H138">
+        <v>271</v>
+      </c>
+      <c r="I138">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>8</v>
+      </c>
+      <c r="B139">
+        <v>165</v>
+      </c>
+      <c r="C139">
+        <v>288</v>
+      </c>
+      <c r="D139">
+        <v>364</v>
+      </c>
+      <c r="E139">
+        <v>436</v>
+      </c>
+      <c r="F139">
+        <v>515</v>
+      </c>
+      <c r="G139">
+        <v>588</v>
+      </c>
+      <c r="H139">
+        <v>637</v>
+      </c>
+      <c r="I139">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>9</v>
+      </c>
+      <c r="B140">
+        <v>92</v>
+      </c>
+      <c r="C140">
+        <v>131</v>
+      </c>
+      <c r="D140">
+        <v>155</v>
+      </c>
+      <c r="E140">
+        <v>196</v>
+      </c>
+      <c r="F140">
+        <v>252</v>
+      </c>
+      <c r="G140">
+        <v>305</v>
+      </c>
+      <c r="H140">
+        <v>336</v>
+      </c>
+      <c r="I140">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>10</v>
+      </c>
+      <c r="B141">
+        <v>53</v>
+      </c>
+      <c r="C141">
+        <v>85</v>
+      </c>
+      <c r="D141">
+        <v>103</v>
+      </c>
+      <c r="E141">
+        <v>131</v>
+      </c>
+      <c r="F141">
+        <v>177</v>
+      </c>
+      <c r="G141">
+        <v>225</v>
+      </c>
+      <c r="H141">
+        <v>263</v>
+      </c>
+      <c r="I141">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>11</v>
+      </c>
+      <c r="B142">
+        <v>54</v>
+      </c>
+      <c r="C142">
+        <v>86</v>
+      </c>
+      <c r="D142">
+        <v>103</v>
+      </c>
+      <c r="E142">
+        <v>132</v>
+      </c>
+      <c r="F142">
+        <v>178</v>
+      </c>
+      <c r="G142">
+        <v>239</v>
+      </c>
+      <c r="H142">
+        <v>263</v>
+      </c>
+      <c r="I142">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>12</v>
+      </c>
+      <c r="B143">
+        <v>193</v>
+      </c>
+      <c r="C143">
+        <v>337</v>
+      </c>
+      <c r="D143">
+        <v>399</v>
+      </c>
+      <c r="E143">
+        <v>454</v>
+      </c>
+      <c r="F143">
+        <v>547</v>
+      </c>
+      <c r="G143">
+        <v>622</v>
+      </c>
+      <c r="H143">
+        <v>686</v>
+      </c>
+      <c r="I143">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>13</v>
+      </c>
+      <c r="B144">
+        <v>83</v>
+      </c>
+      <c r="C144">
+        <v>142</v>
+      </c>
+      <c r="D144">
+        <v>174</v>
+      </c>
+      <c r="E144">
+        <v>204</v>
+      </c>
+      <c r="F144">
+        <v>263</v>
+      </c>
+      <c r="G144">
+        <v>320</v>
+      </c>
+      <c r="H144">
+        <v>364</v>
+      </c>
+      <c r="I144">
         <v>403</v>
       </c>
     </row>
